--- a/Catalog DKS Sognare - Channel.xlsx
+++ b/Catalog DKS Sognare - Channel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Inova/09 - Update automation/Datasets/DKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Inova/09 - Update automation/Datasets/Catalogos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A12A595C737454949AB192A73907B79A858CAD18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3160FB6C-9A00-4ECD-BC5D-866BC6BB2480}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_A12A595C737454949AB192A73907B79A858CAD18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F588AF0B-B041-46E5-A58F-B7A476FE0FBF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>AMAZON MKTP</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>COPPEL MKTP</t>
+  </si>
+  <si>
+    <t>SUPER SOFIA IA</t>
+  </si>
+  <si>
+    <t>SOGNARE AGENTE IA</t>
   </si>
 </sst>
 </file>
@@ -524,10 +530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,6 +789,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
     <sortCondition ref="B2"/>
